--- a/Учет контрольных/ПиОА Квантиль (Контрольная работа 1) DIV100.xlsx
+++ b/Учет контрольных/ПиОА Квантиль (Контрольная работа 1) DIV100.xlsx
@@ -481,13 +481,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -513,7 +513,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>7.000000000000001</v>
@@ -562,10 +562,10 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>7.000000000000001</v>
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>8</v>
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
         <v>12</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -799,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
@@ -819,13 +819,13 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
         <v>7.000000000000001</v>
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>7.000000000000001</v>
@@ -877,7 +877,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
         <v>11</v>
@@ -929,7 +929,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G19" t="n">
         <v>9</v>
@@ -949,7 +949,7 @@
         <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>8</v>
@@ -981,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
         <v>7.000000000000001</v>
@@ -998,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
         <v>9</v>
@@ -1024,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
         <v>12</v>
@@ -1039,7 +1039,7 @@
         <v>12</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
         <v>7.000000000000001</v>
@@ -1105,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
         <v>7.000000000000001</v>
@@ -1131,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
@@ -1189,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
         <v>6</v>
@@ -1215,7 +1215,7 @@
         <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
         <v>10</v>
@@ -1241,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
         <v>9</v>
@@ -1284,7 +1284,7 @@
         <v>6</v>
       </c>
       <c r="C33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" t="n">
         <v>11</v>
@@ -1345,7 +1345,7 @@
         <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G35" t="n">
         <v>11</v>
@@ -1440,7 +1440,7 @@
         <v>18</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="n">
         <v>12</v>
@@ -1469,7 +1469,7 @@
         <v>10</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -1495,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E41" t="n">
         <v>12</v>
@@ -1524,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
         <v>12</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1651,13 +1651,13 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G47" t="n">
         <v>7.000000000000001</v>
@@ -1781,13 +1781,13 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G52" t="n">
         <v>6</v>
@@ -1807,10 +1807,10 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
         <v>9</v>
@@ -1859,7 +1859,7 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
         <v>12</v>
@@ -1882,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
         <v>11</v>
@@ -1963,13 +1963,13 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E59" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G59" t="n">
         <v>9</v>
@@ -2021,7 +2021,7 @@
         <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G61" t="n">
         <v>11</v>
@@ -2073,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G63" t="n">
         <v>6</v>
@@ -2119,7 +2119,7 @@
         <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E65" t="n">
         <v>9</v>
@@ -2171,10 +2171,10 @@
         <v>9</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -2223,13 +2223,13 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" t="n">
         <v>11</v>
       </c>
       <c r="F69" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G69" t="n">
         <v>10</v>
@@ -2275,13 +2275,13 @@
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
         <v>11</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G71" t="n">
         <v>10</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
         <v>9</v>
@@ -2411,7 +2411,7 @@
         <v>12</v>
       </c>
       <c r="F76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G76" t="n">
         <v>11</v>
@@ -2480,7 +2480,7 @@
         <v>13</v>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="n">
         <v>10</v>
@@ -2509,7 +2509,7 @@
         <v>9</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80" t="n">
         <v>8</v>
@@ -2535,13 +2535,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E81" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G81" t="n">
         <v>8</v>
@@ -2567,7 +2567,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G82" t="n">
         <v>7.000000000000001</v>
@@ -2613,16 +2613,16 @@
         <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H84" t="n">
         <v>6</v>
@@ -2645,7 +2645,7 @@
         <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G85" t="n">
         <v>9</v>
@@ -2671,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="F86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G86" t="n">
         <v>11</v>
@@ -2688,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="C87" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D87" t="n">
         <v>12</v>
@@ -2703,7 +2703,7 @@
         <v>12</v>
       </c>
       <c r="H87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
@@ -2723,7 +2723,7 @@
         <v>12</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G88" t="n">
         <v>11</v>
@@ -2792,7 +2792,7 @@
         <v>15</v>
       </c>
       <c r="C91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
         <v>10</v>
@@ -2873,7 +2873,7 @@
         <v>8</v>
       </c>
       <c r="D94" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -2896,10 +2896,10 @@
         <v>15</v>
       </c>
       <c r="C95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E95" t="n">
         <v>11</v>
@@ -2954,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="n">
         <v>12</v>
@@ -2974,10 +2974,10 @@
         <v>13</v>
       </c>
       <c r="C98" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -3003,7 +3003,7 @@
         <v>9</v>
       </c>
       <c r="D99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E99" t="n">
         <v>9</v>
@@ -3029,7 +3029,7 @@
         <v>11</v>
       </c>
       <c r="D100" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
         <v>9</v>
@@ -3081,7 +3081,7 @@
         <v>9</v>
       </c>
       <c r="D102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E102" t="n">
         <v>8</v>
@@ -3159,7 +3159,7 @@
         <v>8</v>
       </c>
       <c r="D105" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E105" t="n">
         <v>9</v>
@@ -3211,7 +3211,7 @@
         <v>11</v>
       </c>
       <c r="D107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E107" t="n">
         <v>11</v>
@@ -3240,10 +3240,10 @@
         <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F108" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
         <v>8</v>
@@ -3260,7 +3260,7 @@
         <v>13</v>
       </c>
       <c r="C109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D109" t="n">
         <v>12</v>
@@ -3269,7 +3269,7 @@
         <v>12</v>
       </c>
       <c r="F109" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G109" t="n">
         <v>11</v>
@@ -3286,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="C110" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D110" t="n">
         <v>9</v>
@@ -3347,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G112" t="n">
         <v>6</v>
@@ -3393,7 +3393,7 @@
         <v>10</v>
       </c>
       <c r="D114" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -3422,7 +3422,7 @@
         <v>12</v>
       </c>
       <c r="E115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="n">
         <v>12</v>
@@ -3442,7 +3442,7 @@
         <v>16</v>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
         <v>10</v>
@@ -3477,7 +3477,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F117" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G117" t="n">
         <v>9</v>
@@ -3497,7 +3497,7 @@
         <v>12</v>
       </c>
       <c r="D118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E118" t="n">
         <v>11</v>
@@ -3607,7 +3607,7 @@
         <v>6</v>
       </c>
       <c r="F122" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G122" t="n">
         <v>7.000000000000001</v>
@@ -3630,7 +3630,7 @@
         <v>12</v>
       </c>
       <c r="E123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="n">
         <v>12</v>
@@ -3679,7 +3679,7 @@
         <v>9</v>
       </c>
       <c r="D125" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E125" t="n">
         <v>9</v>
@@ -3731,13 +3731,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E127" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G127" t="n">
         <v>8</v>
@@ -3757,13 +3757,13 @@
         <v>11</v>
       </c>
       <c r="D128" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E128" t="n">
         <v>11</v>
       </c>
       <c r="F128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G128" t="n">
         <v>10</v>
@@ -3838,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="E131" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="n">
         <v>12</v>
@@ -3858,7 +3858,7 @@
         <v>11</v>
       </c>
       <c r="C132" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D132" t="n">
         <v>10</v>
@@ -3867,7 +3867,7 @@
         <v>11</v>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G132" t="n">
         <v>9</v>
@@ -3939,13 +3939,13 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E135" t="n">
         <v>11</v>
       </c>
       <c r="F135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G135" t="n">
         <v>11</v>
@@ -3965,13 +3965,13 @@
         <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E136" t="n">
         <v>8</v>
       </c>
       <c r="F136" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G136" t="n">
         <v>6</v>
@@ -4017,7 +4017,7 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E138" t="n">
         <v>5</v>
@@ -4049,7 +4049,7 @@
         <v>11</v>
       </c>
       <c r="F139" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G139" t="n">
         <v>10</v>
@@ -4147,7 +4147,7 @@
         <v>9</v>
       </c>
       <c r="D143" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E143" t="n">
         <v>7.000000000000001</v>
@@ -4199,7 +4199,7 @@
         <v>11</v>
       </c>
       <c r="D145" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E145" t="n">
         <v>9</v>
@@ -4231,7 +4231,7 @@
         <v>6</v>
       </c>
       <c r="F146" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G146" t="n">
         <v>7.000000000000001</v>
@@ -4355,13 +4355,13 @@
         <v>5</v>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
       </c>
       <c r="F151" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G151" t="n">
         <v>5</v>
@@ -4485,7 +4485,7 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E156" t="n">
         <v>7.000000000000001</v>
@@ -4511,7 +4511,7 @@
         <v>11</v>
       </c>
       <c r="D157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E157" t="n">
         <v>12</v>
@@ -4586,10 +4586,10 @@
         <v>8</v>
       </c>
       <c r="C160" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D160" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E160" t="n">
         <v>11</v>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -4647,7 +4647,7 @@
         <v>6</v>
       </c>
       <c r="F162" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G162" t="n">
         <v>7.000000000000001</v>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -4751,7 +4751,7 @@
         <v>8</v>
       </c>
       <c r="F166" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G166" t="n">
         <v>8</v>
@@ -4777,7 +4777,7 @@
         <v>5</v>
       </c>
       <c r="F167" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G167" t="n">
         <v>6</v>
@@ -4855,7 +4855,7 @@
         <v>12</v>
       </c>
       <c r="F170" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G170" t="n">
         <v>11</v>
@@ -4875,7 +4875,7 @@
         <v>8</v>
       </c>
       <c r="D171" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E171" t="n">
         <v>8</v>
@@ -4953,7 +4953,7 @@
         <v>8</v>
       </c>
       <c r="D174" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E174" t="n">
         <v>8</v>
@@ -4976,10 +4976,10 @@
         <v>10</v>
       </c>
       <c r="C175" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D175" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E175" t="n">
         <v>11</v>
@@ -5002,10 +5002,10 @@
         <v>3</v>
       </c>
       <c r="C176" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D176" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E176" t="n">
         <v>11</v>
@@ -5054,10 +5054,10 @@
         <v>15</v>
       </c>
       <c r="C178" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D178" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E178" t="n">
         <v>12</v>
@@ -5132,7 +5132,7 @@
         <v>15</v>
       </c>
       <c r="C181" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D181" t="n">
         <v>10</v>
@@ -5161,13 +5161,13 @@
         <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E182" t="n">
         <v>9</v>
       </c>
       <c r="F182" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G182" t="n">
         <v>7.000000000000001</v>
@@ -5187,7 +5187,7 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E183" t="n">
         <v>6</v>
@@ -5219,7 +5219,7 @@
         <v>10</v>
       </c>
       <c r="F184" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G184" t="n">
         <v>9</v>
@@ -5288,7 +5288,7 @@
         <v>18</v>
       </c>
       <c r="C187" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D187" t="n">
         <v>9</v>
@@ -5314,7 +5314,7 @@
         <v>5</v>
       </c>
       <c r="C188" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D188" t="n">
         <v>11</v>
@@ -5349,7 +5349,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F189" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G189" t="n">
         <v>7.000000000000001</v>
@@ -5375,7 +5375,7 @@
         <v>4</v>
       </c>
       <c r="F190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G190" t="n">
         <v>5</v>
@@ -5395,13 +5395,13 @@
         <v>10</v>
       </c>
       <c r="D191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E191" t="n">
         <v>11</v>
       </c>
       <c r="F191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G191" t="n">
         <v>10</v>
@@ -5418,7 +5418,7 @@
         <v>17</v>
       </c>
       <c r="C192" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D192" t="n">
         <v>11</v>
@@ -5444,7 +5444,7 @@
         <v>13</v>
       </c>
       <c r="C193" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D193" t="n">
         <v>12</v>
@@ -5557,7 +5557,7 @@
         <v>12</v>
       </c>
       <c r="F197" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G197" t="n">
         <v>11</v>
@@ -5600,7 +5600,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D199" t="n">
         <v>11</v>
@@ -5626,16 +5626,16 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D200" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
       </c>
       <c r="F200" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G200" t="n">
         <v>9</v>
@@ -5652,10 +5652,10 @@
         <v>16</v>
       </c>
       <c r="C201" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D201" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E201" t="n">
         <v>12</v>
@@ -5681,13 +5681,13 @@
         <v>12</v>
       </c>
       <c r="D202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E202" t="n">
         <v>12</v>
       </c>
       <c r="F202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G202" t="n">
         <v>10</v>
@@ -5707,13 +5707,13 @@
         <v>10</v>
       </c>
       <c r="D203" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E203" t="n">
         <v>11</v>
       </c>
       <c r="F203" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G203" t="n">
         <v>9</v>
@@ -5762,10 +5762,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="E205" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="F205" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G205" t="n">
         <v>8</v>
@@ -5782,7 +5782,7 @@
         <v>10</v>
       </c>
       <c r="C206" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D206" t="n">
         <v>12</v>
@@ -5860,16 +5860,16 @@
         <v>11</v>
       </c>
       <c r="C209" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D209" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E209" t="n">
         <v>11</v>
       </c>
       <c r="F209" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G209" t="n">
         <v>11</v>
@@ -5889,7 +5889,7 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E210" t="n">
         <v>12</v>
@@ -5915,7 +5915,7 @@
         <v>8</v>
       </c>
       <c r="D211" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E211" t="n">
         <v>7.000000000000001</v>
@@ -6051,7 +6051,7 @@
         <v>6</v>
       </c>
       <c r="F216" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G216" t="n">
         <v>7.000000000000001</v>
@@ -6077,7 +6077,7 @@
         <v>4</v>
       </c>
       <c r="F217" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G217" t="n">
         <v>5</v>
@@ -6155,7 +6155,7 @@
         <v>11</v>
       </c>
       <c r="F220" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G220" t="n">
         <v>10</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D224" t="n">
         <v>11</v>
@@ -6276,7 +6276,7 @@
         <v>6</v>
       </c>
       <c r="C225" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D225" t="n">
         <v>9</v>
@@ -6331,10 +6331,10 @@
         <v>8</v>
       </c>
       <c r="D227" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E227" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F227" t="n">
         <v>8</v>
@@ -6386,7 +6386,7 @@
         <v>11</v>
       </c>
       <c r="E229" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="n">
         <v>11</v>
@@ -6415,7 +6415,7 @@
         <v>10</v>
       </c>
       <c r="F230" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G230" t="n">
         <v>9</v>
@@ -6441,7 +6441,7 @@
         <v>5</v>
       </c>
       <c r="F231" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G231" t="n">
         <v>7.000000000000001</v>
@@ -6484,13 +6484,13 @@
         <v>8</v>
       </c>
       <c r="C233" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D233" t="n">
         <v>12</v>
       </c>
       <c r="E233" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F233" t="n">
         <v>12</v>
@@ -6513,7 +6513,7 @@
         <v>10</v>
       </c>
       <c r="D234" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E234" t="n">
         <v>9</v>
@@ -6565,13 +6565,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D236" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E236" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F236" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G236" t="n">
         <v>8</v>
@@ -6597,7 +6597,7 @@
         <v>11</v>
       </c>
       <c r="F237" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G237" t="n">
         <v>10</v>
@@ -6623,7 +6623,7 @@
         <v>5</v>
       </c>
       <c r="F238" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G238" t="n">
         <v>6</v>
@@ -6672,10 +6672,10 @@
         <v>5</v>
       </c>
       <c r="E240" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F240" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G240" t="n">
         <v>7.000000000000001</v>
@@ -6721,13 +6721,13 @@
         <v>9</v>
       </c>
       <c r="D242" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E242" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F242" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G242" t="n">
         <v>9</v>
@@ -6747,7 +6747,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D243" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E243" t="n">
         <v>7.000000000000001</v>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -6805,7 +6805,7 @@
         <v>12</v>
       </c>
       <c r="F245" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G245" t="n">
         <v>10</v>
@@ -6825,13 +6825,13 @@
         <v>10</v>
       </c>
       <c r="D246" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E246" t="n">
         <v>11</v>
       </c>
       <c r="F246" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G246" t="n">
         <v>11</v>
@@ -6851,7 +6851,7 @@
         <v>10</v>
       </c>
       <c r="D247" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -6929,7 +6929,7 @@
         <v>11</v>
       </c>
       <c r="D250" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E250" t="n">
         <v>12</v>
@@ -7007,13 +7007,13 @@
         <v>11</v>
       </c>
       <c r="D253" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E253" t="n">
         <v>11</v>
       </c>
       <c r="F253" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G253" t="n">
         <v>11</v>
@@ -7033,7 +7033,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D254" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -7117,7 +7117,7 @@
         <v>12</v>
       </c>
       <c r="F257" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G257" t="n">
         <v>11</v>
@@ -7134,7 +7134,7 @@
         <v>13</v>
       </c>
       <c r="C258" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D258" t="n">
         <v>11</v>
@@ -7163,7 +7163,7 @@
         <v>8</v>
       </c>
       <c r="D259" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -7186,10 +7186,10 @@
         <v>15</v>
       </c>
       <c r="C260" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D260" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E260" t="n">
         <v>11</v>
@@ -7212,7 +7212,7 @@
         <v>10</v>
       </c>
       <c r="C261" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D261" t="n">
         <v>10</v>
@@ -7247,7 +7247,7 @@
         <v>8</v>
       </c>
       <c r="F262" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G262" t="n">
         <v>8</v>
@@ -7267,13 +7267,13 @@
         <v>8</v>
       </c>
       <c r="D263" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E263" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F263" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G263" t="n">
         <v>9</v>
@@ -7325,7 +7325,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F265" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G265" t="n">
         <v>9</v>
@@ -7368,13 +7368,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C267" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D267" t="n">
         <v>12</v>
       </c>
       <c r="E267" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F267" t="n">
         <v>12</v>
@@ -7455,7 +7455,7 @@
         <v>6</v>
       </c>
       <c r="F270" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G270" t="n">
         <v>7.000000000000001</v>
@@ -7475,7 +7475,7 @@
         <v>10</v>
       </c>
       <c r="D271" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -7504,7 +7504,7 @@
         <v>12</v>
       </c>
       <c r="E272" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F272" t="n">
         <v>12</v>
@@ -7524,7 +7524,7 @@
         <v>13</v>
       </c>
       <c r="C273" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D273" t="n">
         <v>12</v>
@@ -7585,7 +7585,7 @@
         <v>5</v>
       </c>
       <c r="F275" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G275" t="n">
         <v>7.000000000000001</v>
@@ -7738,7 +7738,7 @@
         <v>12</v>
       </c>
       <c r="E281" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F281" t="n">
         <v>12</v>
@@ -7845,7 +7845,7 @@
         <v>12</v>
       </c>
       <c r="F285" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G285" t="n">
         <v>11</v>
@@ -7865,10 +7865,10 @@
         <v>10</v>
       </c>
       <c r="D286" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E286" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F286" t="n">
         <v>9</v>
@@ -7891,13 +7891,13 @@
         <v>4</v>
       </c>
       <c r="D287" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E287" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F287" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G287" t="n">
         <v>5</v>
@@ -7917,7 +7917,7 @@
         <v>8</v>
       </c>
       <c r="D288" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E288" t="n">
         <v>8</v>
@@ -7949,7 +7949,7 @@
         <v>12</v>
       </c>
       <c r="F289" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G289" t="n">
         <v>11</v>
@@ -7975,7 +7975,7 @@
         <v>12</v>
       </c>
       <c r="F290" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G290" t="n">
         <v>11</v>
@@ -7995,13 +7995,13 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E291" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F291" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G291" t="n">
         <v>9</v>
@@ -8021,7 +8021,7 @@
         <v>11</v>
       </c>
       <c r="D292" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E292" t="n">
         <v>11</v>
@@ -8047,7 +8047,7 @@
         <v>10</v>
       </c>
       <c r="D293" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -8099,13 +8099,13 @@
         <v>12</v>
       </c>
       <c r="D295" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E295" t="n">
         <v>12</v>
       </c>
       <c r="F295" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G295" t="n">
         <v>11</v>
@@ -8125,13 +8125,13 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E296" t="n">
         <v>11</v>
       </c>
       <c r="F296" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G296" t="n">
         <v>11</v>
@@ -8148,7 +8148,7 @@
         <v>16</v>
       </c>
       <c r="C297" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D297" t="n">
         <v>9</v>
@@ -8177,7 +8177,7 @@
         <v>9</v>
       </c>
       <c r="D298" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E298" t="n">
         <v>9</v>
@@ -8235,7 +8235,7 @@
         <v>8</v>
       </c>
       <c r="F300" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G300" t="n">
         <v>9</v>
@@ -8261,7 +8261,7 @@
         <v>11</v>
       </c>
       <c r="F301" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G301" t="n">
         <v>10</v>
@@ -8278,7 +8278,7 @@
         <v>16</v>
       </c>
       <c r="C302" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D302" t="n">
         <v>10</v>
@@ -8304,7 +8304,7 @@
         <v>13</v>
       </c>
       <c r="C303" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D303" t="n">
         <v>9</v>
@@ -8382,16 +8382,16 @@
         <v>11</v>
       </c>
       <c r="C306" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D306" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E306" t="n">
         <v>11</v>
       </c>
       <c r="F306" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G306" t="n">
         <v>11</v>
@@ -8463,10 +8463,10 @@
         <v>8</v>
       </c>
       <c r="D309" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E309" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F309" t="n">
         <v>8</v>
@@ -8544,7 +8544,7 @@
         <v>12</v>
       </c>
       <c r="E312" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F312" t="n">
         <v>12</v>
@@ -8564,10 +8564,10 @@
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D313" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
@@ -8599,7 +8599,7 @@
         <v>11</v>
       </c>
       <c r="F314" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G314" t="n">
         <v>9</v>
@@ -8723,7 +8723,7 @@
         <v>9</v>
       </c>
       <c r="D319" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E319" t="n">
         <v>9</v>
@@ -8775,7 +8775,7 @@
         <v>11</v>
       </c>
       <c r="D321" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E321" t="n">
         <v>11</v>
@@ -8801,13 +8801,13 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E322" t="n">
         <v>11</v>
       </c>
       <c r="F322" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G322" t="n">
         <v>10</v>
@@ -8850,7 +8850,7 @@
         <v>9</v>
       </c>
       <c r="C324" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D324" t="n">
         <v>12</v>
@@ -8876,7 +8876,7 @@
         <v>2</v>
       </c>
       <c r="C325" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D325" t="n">
         <v>11</v>
@@ -8885,7 +8885,7 @@
         <v>11</v>
       </c>
       <c r="F325" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G325" t="n">
         <v>10</v>
@@ -8928,10 +8928,10 @@
         <v>11</v>
       </c>
       <c r="C327" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D327" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E327" t="n">
         <v>11</v>
@@ -8957,7 +8957,7 @@
         <v>10</v>
       </c>
       <c r="D328" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -9136,10 +9136,10 @@
         <v>8</v>
       </c>
       <c r="C335" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D335" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E335" t="n">
         <v>11</v>
@@ -9171,7 +9171,7 @@
         <v>5</v>
       </c>
       <c r="F336" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G336" t="n">
         <v>6</v>
@@ -9217,7 +9217,7 @@
         <v>11</v>
       </c>
       <c r="D338" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E338" t="n">
         <v>12</v>
@@ -9266,7 +9266,7 @@
         <v>14</v>
       </c>
       <c r="C340" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D340" t="n">
         <v>12</v>
@@ -9321,7 +9321,7 @@
         <v>8</v>
       </c>
       <c r="D342" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E342" t="n">
         <v>7.000000000000001</v>
@@ -9373,7 +9373,7 @@
         <v>5</v>
       </c>
       <c r="D344" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E344" t="n">
         <v>6</v>
@@ -9431,7 +9431,7 @@
         <v>12</v>
       </c>
       <c r="F346" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G346" t="n">
         <v>11</v>
@@ -9457,7 +9457,7 @@
         <v>12</v>
       </c>
       <c r="F347" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G347" t="n">
         <v>11</v>
@@ -9526,7 +9526,7 @@
         <v>8</v>
       </c>
       <c r="C350" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D350" t="n">
         <v>12</v>
@@ -9541,7 +9541,7 @@
         <v>12</v>
       </c>
       <c r="H350" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351">
@@ -9616,7 +9616,7 @@
         <v>11</v>
       </c>
       <c r="G353" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H353" t="n">
         <v>10</v>
@@ -9633,13 +9633,13 @@
         <v>11</v>
       </c>
       <c r="D354" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E354" t="n">
         <v>11</v>
       </c>
       <c r="F354" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G354" t="n">
         <v>11</v>
@@ -9659,13 +9659,13 @@
         <v>4</v>
       </c>
       <c r="D355" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E355" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F355" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G355" t="n">
         <v>5</v>
@@ -9691,7 +9691,7 @@
         <v>11</v>
       </c>
       <c r="F356" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G356" t="n">
         <v>10</v>
@@ -9734,16 +9734,16 @@
         <v>10</v>
       </c>
       <c r="C358" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E358" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F358" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G358" t="n">
         <v>9</v>
@@ -9786,7 +9786,7 @@
         <v>9</v>
       </c>
       <c r="C360" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D360" t="n">
         <v>12</v>
@@ -9795,7 +9795,7 @@
         <v>12</v>
       </c>
       <c r="F360" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G360" t="n">
         <v>11</v>
@@ -9812,7 +9812,7 @@
         <v>14</v>
       </c>
       <c r="C361" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D361" t="n">
         <v>10</v>
@@ -9838,13 +9838,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C362" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D362" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E362" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F362" t="n">
         <v>6</v>
@@ -9890,10 +9890,10 @@
         <v>8</v>
       </c>
       <c r="C364" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D364" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E364" t="n">
         <v>11</v>
@@ -9945,13 +9945,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D366" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E366" t="n">
         <v>8</v>
       </c>
       <c r="F366" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G366" t="n">
         <v>7.000000000000001</v>
@@ -9968,7 +9968,7 @@
         <v>11</v>
       </c>
       <c r="C367" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D367" t="n">
         <v>12</v>
@@ -9983,7 +9983,7 @@
         <v>11</v>
       </c>
       <c r="H367" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368">
@@ -9997,7 +9997,7 @@
         <v>8</v>
       </c>
       <c r="D368" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E368" t="n">
         <v>8</v>
@@ -10029,7 +10029,7 @@
         <v>6</v>
       </c>
       <c r="F369" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G369" t="n">
         <v>8</v>
@@ -10101,13 +10101,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D372" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E372" t="n">
         <v>8</v>
       </c>
       <c r="F372" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G372" t="n">
         <v>7.000000000000001</v>
@@ -10153,7 +10153,7 @@
         <v>10</v>
       </c>
       <c r="D374" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -10179,13 +10179,13 @@
         <v>10</v>
       </c>
       <c r="D375" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E375" t="n">
         <v>11</v>
       </c>
       <c r="F375" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G375" t="n">
         <v>10</v>
@@ -10228,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D377" t="n">
         <v>11</v>
@@ -10257,13 +10257,13 @@
         <v>10</v>
       </c>
       <c r="D378" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E378" t="n">
         <v>11</v>
       </c>
       <c r="F378" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G378" t="n">
         <v>10</v>
@@ -10283,7 +10283,7 @@
         <v>11</v>
       </c>
       <c r="D379" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E379" t="n">
         <v>12</v>
@@ -10312,7 +10312,7 @@
         <v>11</v>
       </c>
       <c r="E380" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F380" t="n">
         <v>11</v>
@@ -10410,7 +10410,7 @@
         <v>6</v>
       </c>
       <c r="C384" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D384" t="n">
         <v>11</v>
@@ -10497,7 +10497,7 @@
         <v>11</v>
       </c>
       <c r="F387" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G387" t="n">
         <v>10</v>
@@ -10517,13 +10517,13 @@
         <v>10</v>
       </c>
       <c r="D388" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E388" t="n">
         <v>11</v>
       </c>
       <c r="F388" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G388" t="n">
         <v>10</v>
@@ -10543,13 +10543,13 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E389" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F389" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G389" t="n">
         <v>9</v>
@@ -10566,7 +10566,7 @@
         <v>10</v>
       </c>
       <c r="C390" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D390" t="n">
         <v>12</v>
@@ -10621,13 +10621,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D392" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E392" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F392" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G392" t="n">
         <v>8</v>
@@ -10653,7 +10653,7 @@
         <v>4</v>
       </c>
       <c r="F393" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G393" t="n">
         <v>4</v>
@@ -10673,13 +10673,13 @@
         <v>10</v>
       </c>
       <c r="D394" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E394" t="n">
         <v>11</v>
       </c>
       <c r="F394" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G394" t="n">
         <v>10</v>
@@ -10705,7 +10705,7 @@
         <v>11</v>
       </c>
       <c r="F395" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G395" t="n">
         <v>10</v>
@@ -10725,10 +10725,10 @@
         <v>8</v>
       </c>
       <c r="D396" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E396" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F396" t="n">
         <v>8</v>
@@ -10751,13 +10751,13 @@
         <v>10</v>
       </c>
       <c r="D397" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E397" t="n">
         <v>11</v>
       </c>
       <c r="F397" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G397" t="n">
         <v>10</v>
@@ -10777,13 +10777,13 @@
         <v>10</v>
       </c>
       <c r="D398" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E398" t="n">
         <v>11</v>
       </c>
       <c r="F398" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G398" t="n">
         <v>10</v>
@@ -10809,7 +10809,7 @@
         <v>11</v>
       </c>
       <c r="F399" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G399" t="n">
         <v>10</v>
@@ -10829,7 +10829,7 @@
         <v>8</v>
       </c>
       <c r="D400" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E400" t="n">
         <v>7.000000000000001</v>
@@ -10965,7 +10965,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F405" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G405" t="n">
         <v>7.000000000000001</v>
@@ -10991,7 +10991,7 @@
         <v>11</v>
       </c>
       <c r="F406" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G406" t="n">
         <v>10</v>
@@ -11043,7 +11043,7 @@
         <v>11</v>
       </c>
       <c r="F408" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G408" t="n">
         <v>10</v>
@@ -11063,13 +11063,13 @@
         <v>10</v>
       </c>
       <c r="D409" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E409" t="n">
         <v>11</v>
       </c>
       <c r="F409" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G409" t="n">
         <v>10</v>
@@ -11089,7 +11089,7 @@
         <v>13</v>
       </c>
       <c r="D410" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E410" t="n">
         <v>12</v>
@@ -11115,7 +11115,7 @@
         <v>8</v>
       </c>
       <c r="D411" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E411" t="n">
         <v>8</v>
@@ -11141,13 +11141,13 @@
         <v>6</v>
       </c>
       <c r="D412" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E412" t="n">
         <v>6</v>
       </c>
       <c r="F412" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G412" t="n">
         <v>8</v>
@@ -11167,13 +11167,13 @@
         <v>10</v>
       </c>
       <c r="D413" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E413" t="n">
         <v>11</v>
       </c>
       <c r="F413" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G413" t="n">
         <v>10</v>
@@ -11190,10 +11190,10 @@
         <v>11</v>
       </c>
       <c r="C414" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D414" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E414" t="n">
         <v>12</v>
@@ -11219,7 +11219,7 @@
         <v>8</v>
       </c>
       <c r="D415" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E415" t="n">
         <v>7.000000000000001</v>
@@ -11323,13 +11323,13 @@
         <v>10</v>
       </c>
       <c r="D419" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E419" t="n">
         <v>11</v>
       </c>
       <c r="F419" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G419" t="n">
         <v>11</v>
@@ -11349,7 +11349,7 @@
         <v>11</v>
       </c>
       <c r="D420" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E420" t="n">
         <v>11</v>
@@ -11381,7 +11381,7 @@
         <v>11</v>
       </c>
       <c r="F421" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G421" t="n">
         <v>10</v>
@@ -11433,7 +11433,7 @@
         <v>11</v>
       </c>
       <c r="F423" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G423" t="n">
         <v>10</v>
@@ -11534,7 +11534,7 @@
         <v>12</v>
       </c>
       <c r="E427" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F427" t="n">
         <v>12</v>
@@ -11583,13 +11583,13 @@
         <v>11</v>
       </c>
       <c r="D429" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E429" t="n">
         <v>11</v>
       </c>
       <c r="F429" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G429" t="n">
         <v>10</v>
@@ -11632,7 +11632,7 @@
         <v>13</v>
       </c>
       <c r="C431" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D431" t="n">
         <v>12</v>
@@ -11647,7 +11647,7 @@
         <v>12</v>
       </c>
       <c r="H431" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="432">
@@ -11667,7 +11667,7 @@
         <v>11</v>
       </c>
       <c r="F432" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G432" t="n">
         <v>10</v>
@@ -11719,7 +11719,7 @@
         <v>11</v>
       </c>
       <c r="F434" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G434" t="n">
         <v>11</v>
@@ -11739,7 +11739,7 @@
         <v>10</v>
       </c>
       <c r="D435" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -11765,7 +11765,7 @@
         <v>9</v>
       </c>
       <c r="D436" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E436" t="n">
         <v>8</v>
@@ -11791,13 +11791,13 @@
         <v>6</v>
       </c>
       <c r="D437" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E437" t="n">
         <v>6</v>
       </c>
       <c r="F437" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G437" t="n">
         <v>8</v>
@@ -11817,7 +11817,7 @@
         <v>11</v>
       </c>
       <c r="D438" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E438" t="n">
         <v>11</v>
@@ -11875,7 +11875,7 @@
         <v>10</v>
       </c>
       <c r="F440" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G440" t="n">
         <v>9</v>
@@ -11895,13 +11895,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D441" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E441" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F441" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G441" t="n">
         <v>8</v>
@@ -11927,7 +11927,7 @@
         <v>8</v>
       </c>
       <c r="F442" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G442" t="n">
         <v>8</v>
@@ -11979,7 +11979,7 @@
         <v>12</v>
       </c>
       <c r="F444" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G444" t="n">
         <v>10</v>
@@ -11999,7 +11999,7 @@
         <v>8</v>
       </c>
       <c r="D445" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E445" t="n">
         <v>9</v>
@@ -12022,7 +12022,7 @@
         <v>15</v>
       </c>
       <c r="C446" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D446" t="n">
         <v>10</v>
@@ -12031,7 +12031,7 @@
         <v>11</v>
       </c>
       <c r="F446" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G446" t="n">
         <v>11</v>
@@ -12051,10 +12051,10 @@
         <v>8</v>
       </c>
       <c r="D447" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E447" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F447" t="n">
         <v>8</v>
@@ -12080,7 +12080,7 @@
         <v>12</v>
       </c>
       <c r="E448" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F448" t="n">
         <v>12</v>
@@ -12152,7 +12152,7 @@
         <v>10</v>
       </c>
       <c r="C451" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D451" t="n">
         <v>12</v>
@@ -12167,7 +12167,7 @@
         <v>12</v>
       </c>
       <c r="H451" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452">
@@ -12230,7 +12230,7 @@
         <v>13</v>
       </c>
       <c r="C454" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D454" t="n">
         <v>10</v>
@@ -12308,7 +12308,7 @@
         <v>9</v>
       </c>
       <c r="C457" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D457" t="n">
         <v>10</v>
@@ -12317,7 +12317,7 @@
         <v>11</v>
       </c>
       <c r="F457" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G457" t="n">
         <v>11</v>
@@ -12360,7 +12360,7 @@
         <v>16</v>
       </c>
       <c r="C459" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D459" t="n">
         <v>11</v>
@@ -12395,7 +12395,7 @@
         <v>10</v>
       </c>
       <c r="F460" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G460" t="n">
         <v>7.000000000000001</v>
@@ -12447,7 +12447,7 @@
         <v>8</v>
       </c>
       <c r="F462" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G462" t="n">
         <v>8</v>
@@ -12473,7 +12473,7 @@
         <v>5</v>
       </c>
       <c r="F463" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G463" t="n">
         <v>6</v>
@@ -12490,7 +12490,7 @@
         <v>9</v>
       </c>
       <c r="C464" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D464" t="n">
         <v>11</v>
@@ -12519,7 +12519,7 @@
         <v>8</v>
       </c>
       <c r="D465" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E465" t="n">
         <v>6</v>
@@ -12545,13 +12545,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D466" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E466" t="n">
         <v>6</v>
       </c>
       <c r="F466" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G466" t="n">
         <v>7.000000000000001</v>
@@ -12623,13 +12623,13 @@
         <v>11</v>
       </c>
       <c r="D469" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E469" t="n">
         <v>11</v>
       </c>
       <c r="F469" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G469" t="n">
         <v>11</v>
@@ -12675,13 +12675,13 @@
         <v>6</v>
       </c>
       <c r="D471" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E471" t="n">
         <v>6</v>
       </c>
       <c r="F471" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G471" t="n">
         <v>7.000000000000001</v>
@@ -12707,7 +12707,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F472" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G472" t="n">
         <v>9</v>
@@ -12727,7 +12727,7 @@
         <v>11</v>
       </c>
       <c r="D473" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E473" t="n">
         <v>11</v>
@@ -12753,7 +12753,7 @@
         <v>9</v>
       </c>
       <c r="D474" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E474" t="n">
         <v>9</v>
@@ -12785,7 +12785,7 @@
         <v>12</v>
       </c>
       <c r="F475" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G475" t="n">
         <v>10</v>
@@ -12811,7 +12811,7 @@
         <v>12</v>
       </c>
       <c r="F476" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G476" t="n">
         <v>11</v>
@@ -12831,13 +12831,13 @@
         <v>11</v>
       </c>
       <c r="D477" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E477" t="n">
         <v>11</v>
       </c>
       <c r="F477" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G477" t="n">
         <v>11</v>
@@ -12857,13 +12857,13 @@
         <v>9</v>
       </c>
       <c r="D478" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E478" t="n">
         <v>9</v>
       </c>
       <c r="F478" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G478" t="n">
         <v>8</v>
@@ -12883,7 +12883,7 @@
         <v>9</v>
       </c>
       <c r="D479" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E479" t="n">
         <v>9</v>
@@ -12941,7 +12941,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F481" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G481" t="n">
         <v>8</v>
@@ -12958,10 +12958,10 @@
         <v>5</v>
       </c>
       <c r="C482" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D482" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E482" t="n">
         <v>6</v>
@@ -12987,7 +12987,7 @@
         <v>8</v>
       </c>
       <c r="D483" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E483" t="n">
         <v>7.000000000000001</v>
@@ -13010,7 +13010,7 @@
         <v>12</v>
       </c>
       <c r="C484" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D484" t="n">
         <v>12</v>
@@ -13019,7 +13019,7 @@
         <v>12</v>
       </c>
       <c r="F484" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G484" t="n">
         <v>11</v>
@@ -13039,7 +13039,7 @@
         <v>8</v>
       </c>
       <c r="D485" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E485" t="n">
         <v>9</v>
@@ -13062,10 +13062,10 @@
         <v>17</v>
       </c>
       <c r="C486" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D486" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E486" t="n">
         <v>12</v>
@@ -13091,7 +13091,7 @@
         <v>8</v>
       </c>
       <c r="D487" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E487" t="n">
         <v>7.000000000000001</v>
@@ -13117,13 +13117,13 @@
         <v>12</v>
       </c>
       <c r="D488" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E488" t="n">
         <v>12</v>
       </c>
       <c r="F488" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G488" t="n">
         <v>11</v>
@@ -13201,7 +13201,7 @@
         <v>8</v>
       </c>
       <c r="F491" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G491" t="n">
         <v>8</v>
@@ -13227,7 +13227,7 @@
         <v>6</v>
       </c>
       <c r="F492" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G492" t="n">
         <v>6</v>
@@ -13247,13 +13247,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D493" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E493" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F493" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G493" t="n">
         <v>8</v>
@@ -13279,7 +13279,7 @@
         <v>12</v>
       </c>
       <c r="F494" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G494" t="n">
         <v>11</v>
@@ -13348,7 +13348,7 @@
         <v>10</v>
       </c>
       <c r="C497" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D497" t="n">
         <v>10</v>
@@ -13357,7 +13357,7 @@
         <v>11</v>
       </c>
       <c r="F497" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G497" t="n">
         <v>11</v>
@@ -13383,7 +13383,7 @@
         <v>9</v>
       </c>
       <c r="F498" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G498" t="n">
         <v>7.000000000000001</v>
@@ -13409,7 +13409,7 @@
         <v>5</v>
       </c>
       <c r="F499" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G499" t="n">
         <v>7.000000000000001</v>
@@ -13426,7 +13426,7 @@
         <v>13</v>
       </c>
       <c r="C500" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D500" t="n">
         <v>12</v>
@@ -13455,7 +13455,7 @@
         <v>11</v>
       </c>
       <c r="D501" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E501" t="n">
         <v>12</v>
@@ -13565,7 +13565,7 @@
         <v>5</v>
       </c>
       <c r="F505" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G505" t="n">
         <v>6</v>
@@ -13608,10 +13608,10 @@
         <v>10</v>
       </c>
       <c r="C507" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D507" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E507" t="n">
         <v>12</v>
@@ -13640,7 +13640,7 @@
         <v>3</v>
       </c>
       <c r="E508" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F508" t="n">
         <v>3</v>
@@ -13666,10 +13666,10 @@
         <v>3</v>
       </c>
       <c r="E509" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F509" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G509" t="n">
         <v>4</v>
@@ -13689,7 +13689,7 @@
         <v>8</v>
       </c>
       <c r="D510" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E510" t="n">
         <v>10</v>
@@ -13715,13 +13715,13 @@
         <v>12</v>
       </c>
       <c r="D511" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E511" t="n">
         <v>12</v>
       </c>
       <c r="F511" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G511" t="n">
         <v>11</v>
@@ -13741,16 +13741,16 @@
         <v>5</v>
       </c>
       <c r="D512" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E512" t="n">
         <v>9</v>
       </c>
       <c r="F512" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G512" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="H512" t="n">
         <v>7.000000000000001</v>
@@ -13773,7 +13773,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F513" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G513" t="n">
         <v>7.000000000000001</v>
@@ -13842,7 +13842,7 @@
         <v>13</v>
       </c>
       <c r="C516" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D516" t="n">
         <v>12</v>
@@ -13871,13 +13871,13 @@
         <v>6</v>
       </c>
       <c r="D517" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E517" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F517" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G517" t="n">
         <v>9</v>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D518" t="n">
         <v>11</v>
@@ -13906,7 +13906,7 @@
         <v>11</v>
       </c>
       <c r="G518" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="H518" t="n">
         <v>8</v>
@@ -13929,7 +13929,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F519" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G519" t="n">
         <v>9</v>
@@ -13975,13 +13975,13 @@
         <v>8</v>
       </c>
       <c r="D521" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E521" t="n">
         <v>9</v>
       </c>
       <c r="F521" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G521" t="n">
         <v>8</v>
@@ -14001,7 +14001,7 @@
         <v>13</v>
       </c>
       <c r="D522" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E522" t="n">
         <v>12</v>
@@ -14033,7 +14033,7 @@
         <v>8</v>
       </c>
       <c r="F523" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G523" t="n">
         <v>8</v>
@@ -14053,7 +14053,7 @@
         <v>13</v>
       </c>
       <c r="D524" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E524" t="n">
         <v>12</v>
@@ -14091,7 +14091,7 @@
         <v>10</v>
       </c>
       <c r="H525" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="526">
@@ -14134,7 +14134,7 @@
         <v>3</v>
       </c>
       <c r="E527" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F527" t="n">
         <v>3</v>
@@ -14183,7 +14183,7 @@
         <v>6</v>
       </c>
       <c r="D529" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E529" t="n">
         <v>6</v>
@@ -14212,10 +14212,10 @@
         <v>5</v>
       </c>
       <c r="E530" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F530" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G530" t="n">
         <v>8</v>
@@ -14232,7 +14232,7 @@
         <v>9</v>
       </c>
       <c r="C531" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D531" t="n">
         <v>5</v>
@@ -14241,7 +14241,7 @@
         <v>6</v>
       </c>
       <c r="F531" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G531" t="n">
         <v>8</v>
@@ -14261,7 +14261,7 @@
         <v>12</v>
       </c>
       <c r="D532" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E532" t="n">
         <v>11</v>
@@ -14313,7 +14313,7 @@
         <v>8</v>
       </c>
       <c r="D534" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E534" t="n">
         <v>6</v>
@@ -14339,13 +14339,13 @@
         <v>6</v>
       </c>
       <c r="D535" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E535" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F535" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G535" t="n">
         <v>9</v>
@@ -14391,7 +14391,7 @@
         <v>9</v>
       </c>
       <c r="D537" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E537" t="n">
         <v>9</v>
@@ -14443,13 +14443,13 @@
         <v>10</v>
       </c>
       <c r="D539" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E539" t="n">
         <v>11</v>
       </c>
       <c r="F539" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G539" t="n">
         <v>11</v>
@@ -14466,7 +14466,7 @@
         <v>9</v>
       </c>
       <c r="C540" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D540" t="n">
         <v>10</v>
@@ -14495,10 +14495,10 @@
         <v>10</v>
       </c>
       <c r="D541" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E541" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F541" t="n">
         <v>9</v>
@@ -14544,7 +14544,7 @@
         <v>4</v>
       </c>
       <c r="C543" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D543" t="n">
         <v>9</v>
@@ -14683,7 +14683,7 @@
         <v>12</v>
       </c>
       <c r="F548" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G548" t="n">
         <v>10</v>
@@ -14703,16 +14703,16 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D549" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E549" t="n">
         <v>8</v>
       </c>
       <c r="F549" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G549" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="H549" t="n">
         <v>8</v>
@@ -14778,10 +14778,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C552" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D552" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E552" t="n">
         <v>6</v>
@@ -14885,7 +14885,7 @@
         <v>10</v>
       </c>
       <c r="D556" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E556" t="n">
         <v>10</v>
@@ -14943,7 +14943,7 @@
         <v>6</v>
       </c>
       <c r="F558" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G558" t="n">
         <v>8</v>
@@ -14963,13 +14963,13 @@
         <v>9</v>
       </c>
       <c r="D559" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E559" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F559" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G559" t="n">
         <v>9</v>
@@ -14989,7 +14989,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D560" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E560" t="n">
         <v>10</v>
@@ -15015,7 +15015,7 @@
         <v>6</v>
       </c>
       <c r="D561" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E561" t="n">
         <v>7.000000000000001</v>
@@ -15041,13 +15041,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D562" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E562" t="n">
         <v>8</v>
       </c>
       <c r="F562" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G562" t="n">
         <v>7.000000000000001</v>
@@ -15064,10 +15064,10 @@
         <v>13</v>
       </c>
       <c r="C563" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D563" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E563" t="n">
         <v>12</v>
@@ -15151,7 +15151,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F566" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G566" t="n">
         <v>8</v>
@@ -15197,7 +15197,7 @@
         <v>8</v>
       </c>
       <c r="D568" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E568" t="n">
         <v>8</v>
@@ -15220,7 +15220,7 @@
         <v>4</v>
       </c>
       <c r="C569" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D569" t="n">
         <v>9</v>
@@ -15246,7 +15246,7 @@
         <v>16</v>
       </c>
       <c r="C570" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D570" t="n">
         <v>12</v>
@@ -15261,7 +15261,7 @@
         <v>12</v>
       </c>
       <c r="H570" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="571">
@@ -15272,13 +15272,13 @@
         <v>12</v>
       </c>
       <c r="C571" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D571" t="n">
         <v>12</v>
       </c>
       <c r="E571" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F571" t="n">
         <v>12</v>
@@ -15330,10 +15330,10 @@
         <v>5</v>
       </c>
       <c r="E573" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F573" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G573" t="n">
         <v>7.000000000000001</v>
@@ -15353,7 +15353,7 @@
         <v>5</v>
       </c>
       <c r="D574" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E574" t="n">
         <v>6</v>
@@ -15379,13 +15379,13 @@
         <v>6</v>
       </c>
       <c r="D575" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E575" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F575" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G575" t="n">
         <v>9</v>
@@ -15405,10 +15405,10 @@
         <v>6</v>
       </c>
       <c r="D576" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E576" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F576" t="n">
         <v>5</v>
@@ -15437,7 +15437,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F577" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G577" t="n">
         <v>7.000000000000001</v>
@@ -15463,7 +15463,7 @@
         <v>6</v>
       </c>
       <c r="F578" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G578" t="n">
         <v>7.000000000000001</v>
@@ -15486,10 +15486,10 @@
         <v>3</v>
       </c>
       <c r="E579" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F579" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G579" t="n">
         <v>4</v>
@@ -15541,7 +15541,7 @@
         <v>12</v>
       </c>
       <c r="F581" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G581" t="n">
         <v>11</v>
@@ -15593,7 +15593,7 @@
         <v>11</v>
       </c>
       <c r="F583" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G583" t="n">
         <v>11</v>
@@ -15610,16 +15610,16 @@
         <v>9</v>
       </c>
       <c r="C584" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D584" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E584" t="n">
         <v>10</v>
       </c>
       <c r="F584" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G584" t="n">
         <v>9</v>
@@ -15671,7 +15671,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F586" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G586" t="n">
         <v>8</v>
@@ -15775,7 +15775,7 @@
         <v>6</v>
       </c>
       <c r="F590" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G590" t="n">
         <v>7.000000000000001</v>
@@ -15977,13 +15977,13 @@
         <v>11</v>
       </c>
       <c r="D598" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E598" t="n">
         <v>11</v>
       </c>
       <c r="F598" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G598" t="n">
         <v>11</v>
@@ -16026,7 +16026,7 @@
         <v>20</v>
       </c>
       <c r="C600" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D600" t="n">
         <v>11</v>
@@ -16058,10 +16058,10 @@
         <v>5</v>
       </c>
       <c r="E601" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F601" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G601" t="n">
         <v>8</v>
@@ -16107,7 +16107,7 @@
         <v>12</v>
       </c>
       <c r="D603" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E603" t="n">
         <v>12</v>
@@ -16133,7 +16133,7 @@
         <v>11</v>
       </c>
       <c r="D604" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E604" t="n">
         <v>12</v>
@@ -16162,7 +16162,7 @@
         <v>12</v>
       </c>
       <c r="E605" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F605" t="n">
         <v>12</v>
@@ -16191,7 +16191,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F606" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G606" t="n">
         <v>7.000000000000001</v>
@@ -16211,7 +16211,7 @@
         <v>13</v>
       </c>
       <c r="D607" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E607" t="n">
         <v>12</v>
@@ -16373,7 +16373,7 @@
         <v>10</v>
       </c>
       <c r="F613" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G613" t="n">
         <v>7.000000000000001</v>
@@ -16393,13 +16393,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D614" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E614" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F614" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G614" t="n">
         <v>8</v>
@@ -16419,7 +16419,7 @@
         <v>5</v>
       </c>
       <c r="D615" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E615" t="n">
         <v>6</v>
@@ -16471,13 +16471,13 @@
         <v>10</v>
       </c>
       <c r="D617" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E617" t="n">
         <v>11</v>
       </c>
       <c r="F617" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G617" t="n">
         <v>10</v>
@@ -16529,7 +16529,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F619" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G619" t="n">
         <v>9</v>
@@ -16581,7 +16581,7 @@
         <v>12</v>
       </c>
       <c r="F621" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G621" t="n">
         <v>11</v>
@@ -16633,7 +16633,7 @@
         <v>12</v>
       </c>
       <c r="F623" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G623" t="n">
         <v>11</v>
@@ -16650,7 +16650,7 @@
         <v>9</v>
       </c>
       <c r="C624" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D624" t="n">
         <v>12</v>
@@ -16731,7 +16731,7 @@
         <v>10</v>
       </c>
       <c r="D627" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E627" t="n">
         <v>10</v>
@@ -16757,13 +16757,13 @@
         <v>6</v>
       </c>
       <c r="D628" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E628" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F628" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G628" t="n">
         <v>9</v>
@@ -16780,10 +16780,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C629" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D629" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E629" t="n">
         <v>11</v>
@@ -16806,10 +16806,10 @@
         <v>3</v>
       </c>
       <c r="C630" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D630" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E630" t="n">
         <v>11</v>
@@ -16991,7 +16991,7 @@
         <v>11</v>
       </c>
       <c r="D637" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E637" t="n">
         <v>12</v>
@@ -17043,10 +17043,10 @@
         <v>10</v>
       </c>
       <c r="D639" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E639" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F639" t="n">
         <v>9</v>
@@ -17066,7 +17066,7 @@
         <v>18</v>
       </c>
       <c r="C640" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D640" t="n">
         <v>12</v>
@@ -17081,7 +17081,7 @@
         <v>12</v>
       </c>
       <c r="H640" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="641">
@@ -17170,7 +17170,7 @@
         <v>10</v>
       </c>
       <c r="C644" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D644" t="n">
         <v>12</v>
@@ -17222,7 +17222,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C646" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D646" t="n">
         <v>12</v>
@@ -17237,7 +17237,7 @@
         <v>12</v>
       </c>
       <c r="H646" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="647">
@@ -17248,13 +17248,13 @@
         <v>4</v>
       </c>
       <c r="C647" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D647" t="n">
         <v>9</v>
       </c>
       <c r="E647" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F647" t="n">
         <v>9</v>
@@ -17277,7 +17277,7 @@
         <v>8</v>
       </c>
       <c r="D648" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E648" t="n">
         <v>8</v>
@@ -17326,7 +17326,7 @@
         <v>15</v>
       </c>
       <c r="C650" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D650" t="n">
         <v>12</v>
@@ -17341,7 +17341,7 @@
         <v>12</v>
       </c>
       <c r="H650" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="651">
@@ -17387,7 +17387,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F652" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G652" t="n">
         <v>9</v>
@@ -17413,7 +17413,7 @@
         <v>5</v>
       </c>
       <c r="F653" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G653" t="n">
         <v>6</v>
@@ -17494,7 +17494,7 @@
         <v>8</v>
       </c>
       <c r="G656" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H656" t="n">
         <v>8</v>
@@ -17517,7 +17517,7 @@
         <v>10</v>
       </c>
       <c r="F657" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G657" t="n">
         <v>8</v>
@@ -17534,7 +17534,7 @@
         <v>10</v>
       </c>
       <c r="C658" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D658" t="n">
         <v>10</v>
@@ -17563,10 +17563,10 @@
         <v>9</v>
       </c>
       <c r="D659" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E659" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F659" t="n">
         <v>9</v>
@@ -17612,7 +17612,7 @@
         <v>12</v>
       </c>
       <c r="C661" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D661" t="n">
         <v>12</v>
@@ -17693,10 +17693,10 @@
         <v>6</v>
       </c>
       <c r="D664" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E664" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F664" t="n">
         <v>6</v>
@@ -17751,7 +17751,7 @@
         <v>11</v>
       </c>
       <c r="F666" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G666" t="n">
         <v>10</v>
@@ -17852,7 +17852,7 @@
         <v>3</v>
       </c>
       <c r="E670" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F670" t="n">
         <v>3</v>
@@ -17878,7 +17878,7 @@
         <v>12</v>
       </c>
       <c r="E671" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F671" t="n">
         <v>12</v>
@@ -17950,7 +17950,7 @@
         <v>10</v>
       </c>
       <c r="C674" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D674" t="n">
         <v>12</v>
@@ -18005,7 +18005,7 @@
         <v>8</v>
       </c>
       <c r="D676" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E676" t="n">
         <v>7.000000000000001</v>
@@ -18031,7 +18031,7 @@
         <v>8</v>
       </c>
       <c r="D677" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E677" t="n">
         <v>7.000000000000001</v>
@@ -18057,7 +18057,7 @@
         <v>12</v>
       </c>
       <c r="D678" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E678" t="n">
         <v>11</v>
@@ -18083,7 +18083,7 @@
         <v>8</v>
       </c>
       <c r="D679" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E679" t="n">
         <v>7.000000000000001</v>
@@ -18141,7 +18141,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F681" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G681" t="n">
         <v>9</v>
@@ -18158,7 +18158,7 @@
         <v>13</v>
       </c>
       <c r="C682" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D682" t="n">
         <v>9</v>
@@ -18187,7 +18187,7 @@
         <v>13</v>
       </c>
       <c r="D683" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E683" t="n">
         <v>12</v>
@@ -18213,13 +18213,13 @@
         <v>12</v>
       </c>
       <c r="D684" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E684" t="n">
         <v>12</v>
       </c>
       <c r="F684" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G684" t="n">
         <v>11</v>
@@ -18288,7 +18288,7 @@
         <v>14</v>
       </c>
       <c r="C687" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D687" t="n">
         <v>12</v>
@@ -18303,7 +18303,7 @@
         <v>12</v>
       </c>
       <c r="H687" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="688">
@@ -18314,7 +18314,7 @@
         <v>12</v>
       </c>
       <c r="C688" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D688" t="n">
         <v>12</v>
@@ -18349,7 +18349,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F689" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G689" t="n">
         <v>8</v>
@@ -18366,10 +18366,10 @@
         <v>8</v>
       </c>
       <c r="C690" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D690" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E690" t="n">
         <v>11</v>
@@ -18418,7 +18418,7 @@
         <v>18</v>
       </c>
       <c r="C692" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D692" t="n">
         <v>12</v>
@@ -18470,7 +18470,7 @@
         <v>14</v>
       </c>
       <c r="C694" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D694" t="n">
         <v>12</v>
@@ -18496,7 +18496,7 @@
         <v>9</v>
       </c>
       <c r="C695" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D695" t="n">
         <v>12</v>
@@ -18511,7 +18511,7 @@
         <v>12</v>
       </c>
       <c r="H695" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="696">
@@ -18655,7 +18655,7 @@
         <v>11</v>
       </c>
       <c r="D701" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E701" t="n">
         <v>9</v>
@@ -18678,7 +18678,7 @@
         <v>8</v>
       </c>
       <c r="C702" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D702" t="n">
         <v>5</v>
@@ -18687,7 +18687,7 @@
         <v>5</v>
       </c>
       <c r="F702" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G702" t="n">
         <v>6</v>
@@ -18707,13 +18707,13 @@
         <v>6</v>
       </c>
       <c r="D703" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E703" t="n">
         <v>6</v>
       </c>
       <c r="F703" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G703" t="n">
         <v>8</v>
@@ -18759,7 +18759,7 @@
         <v>10</v>
       </c>
       <c r="D705" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E705" t="n">
         <v>10</v>
@@ -18808,7 +18808,7 @@
         <v>12</v>
       </c>
       <c r="C707" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D707" t="n">
         <v>12</v>
@@ -18823,7 +18823,7 @@
         <v>12</v>
       </c>
       <c r="H707" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="708">
@@ -18866,7 +18866,7 @@
         <v>12</v>
       </c>
       <c r="E709" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F709" t="n">
         <v>12</v>
@@ -18895,7 +18895,7 @@
         <v>5</v>
       </c>
       <c r="F710" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G710" t="n">
         <v>6</v>
@@ -18915,13 +18915,13 @@
         <v>6</v>
       </c>
       <c r="D711" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E711" t="n">
         <v>6</v>
       </c>
       <c r="F711" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G711" t="n">
         <v>8</v>
@@ -18941,13 +18941,13 @@
         <v>8</v>
       </c>
       <c r="D712" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E712" t="n">
         <v>9</v>
       </c>
       <c r="F712" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G712" t="n">
         <v>6</v>
@@ -18999,7 +18999,7 @@
         <v>11</v>
       </c>
       <c r="F714" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G714" t="n">
         <v>10</v>
@@ -19094,7 +19094,7 @@
         <v>8</v>
       </c>
       <c r="C718" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D718" t="n">
         <v>10</v>
@@ -19161,7 +19161,7 @@
         <v>1</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
@@ -19181,7 +19181,7 @@
         <v>4</v>
       </c>
       <c r="F721" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G721" t="n">
         <v>5</v>
@@ -19259,7 +19259,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F724" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G724" t="n">
         <v>9</v>
@@ -19354,7 +19354,7 @@
         <v>16</v>
       </c>
       <c r="C728" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D728" t="n">
         <v>12</v>
@@ -19363,7 +19363,7 @@
         <v>12</v>
       </c>
       <c r="F728" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G728" t="n">
         <v>11</v>
@@ -19435,7 +19435,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D731" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E731" t="n">
         <v>6</v>
@@ -19484,10 +19484,10 @@
         <v>4</v>
       </c>
       <c r="C733" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D733" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E733" t="n">
         <v>12</v>
@@ -19516,7 +19516,7 @@
         <v>12</v>
       </c>
       <c r="E734" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F734" t="n">
         <v>12</v>
@@ -19539,13 +19539,13 @@
         <v>4</v>
       </c>
       <c r="D735" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E735" t="n">
         <v>5</v>
       </c>
       <c r="F735" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G735" t="n">
         <v>6</v>
@@ -19571,7 +19571,7 @@
         <v>8</v>
       </c>
       <c r="F736" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G736" t="n">
         <v>7.000000000000001</v>
@@ -19643,13 +19643,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D739" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E739" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F739" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G739" t="n">
         <v>8</v>
@@ -19669,13 +19669,13 @@
         <v>6</v>
       </c>
       <c r="D740" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E740" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F740" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G740" t="n">
         <v>9</v>
@@ -19724,7 +19724,7 @@
         <v>12</v>
       </c>
       <c r="E742" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F742" t="n">
         <v>12</v>
@@ -19744,7 +19744,7 @@
         <v>16</v>
       </c>
       <c r="C743" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D743" t="n">
         <v>11</v>
@@ -19796,7 +19796,7 @@
         <v>17</v>
       </c>
       <c r="C745" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D745" t="n">
         <v>12</v>
@@ -19811,7 +19811,7 @@
         <v>12</v>
       </c>
       <c r="H745" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="746">
@@ -19851,7 +19851,7 @@
         <v>10</v>
       </c>
       <c r="D747" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E747" t="n">
         <v>10</v>
@@ -19912,7 +19912,7 @@
         <v>11</v>
       </c>
       <c r="G749" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H749" t="n">
         <v>10</v>
@@ -19984,7 +19984,7 @@
         <v>12</v>
       </c>
       <c r="E752" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F752" t="n">
         <v>12</v>
@@ -20056,7 +20056,7 @@
         <v>12</v>
       </c>
       <c r="C755" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D755" t="n">
         <v>12</v>
@@ -20215,7 +20215,7 @@
         <v>10</v>
       </c>
       <c r="D761" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E761" t="n">
         <v>10</v>
@@ -20241,7 +20241,7 @@
         <v>8</v>
       </c>
       <c r="D762" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E762" t="n">
         <v>9</v>
@@ -20264,10 +20264,10 @@
         <v>8</v>
       </c>
       <c r="C763" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D763" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E763" t="n">
         <v>12</v>
@@ -20319,7 +20319,7 @@
         <v>10</v>
       </c>
       <c r="D765" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E765" t="n">
         <v>11</v>
@@ -20348,7 +20348,7 @@
         <v>12</v>
       </c>
       <c r="E766" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F766" t="n">
         <v>12</v>
@@ -20394,7 +20394,7 @@
         <v>15</v>
       </c>
       <c r="C768" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D768" t="n">
         <v>11</v>
@@ -20423,13 +20423,13 @@
         <v>11</v>
       </c>
       <c r="D769" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E769" t="n">
         <v>11</v>
       </c>
       <c r="F769" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G769" t="n">
         <v>10</v>
@@ -20475,7 +20475,7 @@
         <v>11</v>
       </c>
       <c r="D771" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E771" t="n">
         <v>11</v>
@@ -20504,7 +20504,7 @@
         <v>12</v>
       </c>
       <c r="E772" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F772" t="n">
         <v>12</v>
@@ -20527,7 +20527,7 @@
         <v>11</v>
       </c>
       <c r="D773" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E773" t="n">
         <v>11</v>
@@ -20709,7 +20709,7 @@
         <v>6</v>
       </c>
       <c r="D780" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E780" t="n">
         <v>7.000000000000001</v>
@@ -20770,7 +20770,7 @@
         <v>11</v>
       </c>
       <c r="G782" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H782" t="n">
         <v>10</v>
@@ -20793,7 +20793,7 @@
         <v>10</v>
       </c>
       <c r="F783" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G783" t="n">
         <v>10</v>
@@ -20862,16 +20862,16 @@
         <v>6</v>
       </c>
       <c r="C786" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D786" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E786" t="n">
         <v>6</v>
       </c>
       <c r="F786" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G786" t="n">
         <v>7.000000000000001</v>
@@ -20888,7 +20888,7 @@
         <v>17</v>
       </c>
       <c r="C787" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D787" t="n">
         <v>12</v>
@@ -20903,7 +20903,7 @@
         <v>12</v>
       </c>
       <c r="H787" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="788">
@@ -20920,7 +20920,7 @@
         <v>12</v>
       </c>
       <c r="E788" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F788" t="n">
         <v>12</v>
@@ -20975,7 +20975,7 @@
         <v>6</v>
       </c>
       <c r="F790" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G790" t="n">
         <v>5</v>
@@ -21053,7 +21053,7 @@
         <v>10</v>
       </c>
       <c r="F793" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G793" t="n">
         <v>8</v>
@@ -21070,7 +21070,7 @@
         <v>16</v>
       </c>
       <c r="C794" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D794" t="n">
         <v>12</v>
@@ -21125,7 +21125,7 @@
         <v>12</v>
       </c>
       <c r="D796" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E796" t="n">
         <v>11</v>
@@ -21148,7 +21148,7 @@
         <v>9</v>
       </c>
       <c r="C797" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D797" t="n">
         <v>10</v>
@@ -21177,7 +21177,7 @@
         <v>11</v>
       </c>
       <c r="D798" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -21333,10 +21333,10 @@
         <v>9</v>
       </c>
       <c r="D804" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E804" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F804" t="n">
         <v>9</v>
@@ -21382,7 +21382,7 @@
         <v>6</v>
       </c>
       <c r="C806" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D806" t="n">
         <v>9</v>
@@ -21417,7 +21417,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F807" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G807" t="n">
         <v>9</v>
@@ -21443,7 +21443,7 @@
         <v>6</v>
       </c>
       <c r="F808" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G808" t="n">
         <v>7.000000000000001</v>
@@ -21463,13 +21463,13 @@
         <v>6</v>
       </c>
       <c r="D809" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E809" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F809" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G809" t="n">
         <v>9</v>
@@ -21495,7 +21495,7 @@
         <v>11</v>
       </c>
       <c r="F810" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G810" t="n">
         <v>10</v>
@@ -21541,7 +21541,7 @@
         <v>11</v>
       </c>
       <c r="D812" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E812" t="n">
         <v>11</v>
@@ -21593,13 +21593,13 @@
         <v>10</v>
       </c>
       <c r="D814" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E814" t="n">
         <v>11</v>
       </c>
       <c r="F814" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G814" t="n">
         <v>10</v>
@@ -21619,13 +21619,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D815" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E815" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F815" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G815" t="n">
         <v>8</v>
@@ -21645,7 +21645,7 @@
         <v>8</v>
       </c>
       <c r="D816" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E816" t="n">
         <v>7.000000000000001</v>
@@ -21671,7 +21671,7 @@
         <v>6</v>
       </c>
       <c r="D817" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E817" t="n">
         <v>6</v>
@@ -21697,7 +21697,7 @@
         <v>12</v>
       </c>
       <c r="D818" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E818" t="n">
         <v>11</v>
@@ -21720,7 +21720,7 @@
         <v>16</v>
       </c>
       <c r="C819" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D819" t="n">
         <v>12</v>
@@ -21735,7 +21735,7 @@
         <v>12</v>
       </c>
       <c r="H819" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="820">
@@ -21801,7 +21801,7 @@
         <v>11</v>
       </c>
       <c r="D822" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -21833,7 +21833,7 @@
         <v>11</v>
       </c>
       <c r="F823" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G823" t="n">
         <v>10</v>
@@ -22061,7 +22061,7 @@
         <v>13</v>
       </c>
       <c r="D832" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E832" t="n">
         <v>12</v>
@@ -22087,10 +22087,10 @@
         <v>8</v>
       </c>
       <c r="D833" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E833" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F833" t="n">
         <v>8</v>
@@ -22142,7 +22142,7 @@
         <v>12</v>
       </c>
       <c r="E835" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F835" t="n">
         <v>12</v>
@@ -22162,7 +22162,7 @@
         <v>15</v>
       </c>
       <c r="C836" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D836" t="n">
         <v>5</v>
@@ -22171,7 +22171,7 @@
         <v>5</v>
       </c>
       <c r="F836" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G836" t="n">
         <v>6</v>
@@ -22223,7 +22223,7 @@
         <v>12</v>
       </c>
       <c r="F838" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G838" t="n">
         <v>11</v>
@@ -22301,7 +22301,7 @@
         <v>5</v>
       </c>
       <c r="F841" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G841" t="n">
         <v>7.000000000000001</v>
@@ -22451,7 +22451,7 @@
         <v>11</v>
       </c>
       <c r="D847" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E847" t="n">
         <v>12</v>
@@ -22474,7 +22474,7 @@
         <v>17</v>
       </c>
       <c r="C848" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D848" t="n">
         <v>12</v>
@@ -22489,7 +22489,7 @@
         <v>12</v>
       </c>
       <c r="H848" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="849">
@@ -22500,10 +22500,10 @@
         <v>7.000000000000001</v>
       </c>
       <c r="C849" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D849" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E849" t="n">
         <v>11</v>
@@ -22529,7 +22529,7 @@
         <v>12</v>
       </c>
       <c r="D850" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E850" t="n">
         <v>11</v>
@@ -22555,7 +22555,7 @@
         <v>8</v>
       </c>
       <c r="D851" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E851" t="n">
         <v>8</v>
@@ -22604,10 +22604,10 @@
         <v>3</v>
       </c>
       <c r="C853" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D853" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E853" t="n">
         <v>11</v>
@@ -22665,7 +22665,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F855" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G855" t="n">
         <v>8</v>
@@ -22711,7 +22711,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D857" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E857" t="n">
         <v>6</v>
@@ -22763,13 +22763,13 @@
         <v>10</v>
       </c>
       <c r="D859" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E859" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F859" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G859" t="n">
         <v>9</v>
@@ -22795,7 +22795,7 @@
         <v>5</v>
       </c>
       <c r="F860" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G860" t="n">
         <v>6</v>
@@ -22821,7 +22821,7 @@
         <v>4</v>
       </c>
       <c r="F861" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G861" t="n">
         <v>5</v>
@@ -22867,13 +22867,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D863" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E863" t="n">
         <v>6</v>
       </c>
       <c r="F863" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G863" t="n">
         <v>7.000000000000001</v>
@@ -22971,13 +22971,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D867" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E867" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F867" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G867" t="n">
         <v>9</v>
@@ -23029,7 +23029,7 @@
         <v>5</v>
       </c>
       <c r="F869" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G869" t="n">
         <v>7.000000000000001</v>
@@ -23072,7 +23072,7 @@
         <v>17</v>
       </c>
       <c r="C871" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D871" t="n">
         <v>11</v>
@@ -23124,7 +23124,7 @@
         <v>10</v>
       </c>
       <c r="C873" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D873" t="n">
         <v>12</v>
@@ -23139,7 +23139,7 @@
         <v>12</v>
       </c>
       <c r="H873" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="874">
@@ -23159,7 +23159,7 @@
         <v>5</v>
       </c>
       <c r="F874" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G874" t="n">
         <v>7.000000000000001</v>
@@ -23176,7 +23176,7 @@
         <v>3</v>
       </c>
       <c r="C875" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D875" t="n">
         <v>10</v>
@@ -23237,7 +23237,7 @@
         <v>10</v>
       </c>
       <c r="F877" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G877" t="n">
         <v>7.000000000000001</v>
@@ -23306,7 +23306,7 @@
         <v>10</v>
       </c>
       <c r="C880" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D880" t="n">
         <v>11</v>
@@ -23335,7 +23335,7 @@
         <v>10</v>
       </c>
       <c r="D881" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E881" t="n">
         <v>10</v>
@@ -23410,7 +23410,7 @@
         <v>9</v>
       </c>
       <c r="C884" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D884" t="n">
         <v>11</v>
@@ -23445,7 +23445,7 @@
         <v>10</v>
       </c>
       <c r="F885" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G885" t="n">
         <v>8</v>
@@ -23514,7 +23514,7 @@
         <v>15</v>
       </c>
       <c r="C888" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D888" t="n">
         <v>12</v>
@@ -23540,10 +23540,10 @@
         <v>13</v>
       </c>
       <c r="C889" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D889" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E889" t="n">
         <v>11</v>
@@ -23572,7 +23572,7 @@
         <v>12</v>
       </c>
       <c r="E890" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F890" t="n">
         <v>12</v>
@@ -23601,7 +23601,7 @@
         <v>6</v>
       </c>
       <c r="F891" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G891" t="n">
         <v>7.000000000000001</v>
@@ -23627,7 +23627,7 @@
         <v>11</v>
       </c>
       <c r="F892" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G892" t="n">
         <v>10</v>
@@ -23679,7 +23679,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F894" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G894" t="n">
         <v>9</v>
@@ -23699,13 +23699,13 @@
         <v>4</v>
       </c>
       <c r="D895" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E895" t="n">
         <v>4</v>
       </c>
       <c r="F895" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G895" t="n">
         <v>5</v>
@@ -23757,7 +23757,7 @@
         <v>6</v>
       </c>
       <c r="F897" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G897" t="n">
         <v>7.000000000000001</v>
@@ -23800,7 +23800,7 @@
         <v>12</v>
       </c>
       <c r="C899" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D899" t="n">
         <v>12</v>
@@ -23809,7 +23809,7 @@
         <v>12</v>
       </c>
       <c r="F899" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G899" t="n">
         <v>11</v>
@@ -23829,13 +23829,13 @@
         <v>10</v>
       </c>
       <c r="D900" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E900" t="n">
         <v>11</v>
       </c>
       <c r="F900" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G900" t="n">
         <v>10</v>
@@ -23904,7 +23904,7 @@
         <v>16</v>
       </c>
       <c r="C903" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D903" t="n">
         <v>12</v>
@@ -23919,7 +23919,7 @@
         <v>12</v>
       </c>
       <c r="H903" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="904">
@@ -23965,7 +23965,7 @@
         <v>10</v>
       </c>
       <c r="F905" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G905" t="n">
         <v>9</v>
@@ -23985,10 +23985,10 @@
         <v>6</v>
       </c>
       <c r="D906" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E906" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="F906" t="n">
         <v>6</v>
@@ -24008,7 +24008,7 @@
         <v>14</v>
       </c>
       <c r="C907" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D907" t="n">
         <v>12</v>
@@ -24023,7 +24023,7 @@
         <v>12</v>
       </c>
       <c r="H907" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="908">
@@ -24037,7 +24037,7 @@
         <v>11</v>
       </c>
       <c r="D908" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E908" t="n">
         <v>12</v>
@@ -24069,7 +24069,7 @@
         <v>10</v>
       </c>
       <c r="F909" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G909" t="n">
         <v>8</v>
@@ -24112,10 +24112,10 @@
         <v>16</v>
       </c>
       <c r="C911" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="D911" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E911" t="n">
         <v>10</v>
@@ -24141,7 +24141,7 @@
         <v>10</v>
       </c>
       <c r="D912" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E912" t="n">
         <v>11</v>
@@ -24167,7 +24167,7 @@
         <v>12</v>
       </c>
       <c r="D913" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E913" t="n">
         <v>12</v>
@@ -24190,7 +24190,7 @@
         <v>20</v>
       </c>
       <c r="C914" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D914" t="n">
         <v>12</v>
@@ -24271,7 +24271,7 @@
         <v>11</v>
       </c>
       <c r="D917" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -24381,7 +24381,7 @@
         <v>12</v>
       </c>
       <c r="F921" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G921" t="n">
         <v>10</v>
@@ -24401,7 +24401,7 @@
         <v>11</v>
       </c>
       <c r="D922" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E922" t="n">
         <v>12</v>
@@ -24424,10 +24424,10 @@
         <v>16</v>
       </c>
       <c r="C923" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D923" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E923" t="n">
         <v>11</v>
@@ -24557,7 +24557,7 @@
         <v>10</v>
       </c>
       <c r="D928" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E928" t="n">
         <v>11</v>
@@ -24589,7 +24589,7 @@
         <v>12</v>
       </c>
       <c r="F929" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G929" t="n">
         <v>11</v>
@@ -24615,7 +24615,7 @@
         <v>12</v>
       </c>
       <c r="F930" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G930" t="n">
         <v>10</v>
@@ -24661,7 +24661,7 @@
         <v>8</v>
       </c>
       <c r="D932" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E932" t="n">
         <v>8</v>
@@ -24687,7 +24687,7 @@
         <v>11</v>
       </c>
       <c r="D933" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E933" t="n">
         <v>11</v>
@@ -24710,7 +24710,7 @@
         <v>12</v>
       </c>
       <c r="C934" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D934" t="n">
         <v>12</v>
@@ -24771,7 +24771,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F936" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G936" t="n">
         <v>9</v>
@@ -24797,7 +24797,7 @@
         <v>12</v>
       </c>
       <c r="F937" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G937" t="n">
         <v>11</v>
@@ -24823,7 +24823,7 @@
         <v>12</v>
       </c>
       <c r="F938" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G938" t="n">
         <v>11</v>
@@ -24840,7 +24840,7 @@
         <v>1</v>
       </c>
       <c r="C939" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D939" t="n">
         <v>10</v>
@@ -24892,10 +24892,10 @@
         <v>14</v>
       </c>
       <c r="C941" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D941" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E941" t="n">
         <v>11</v>
@@ -24918,7 +24918,7 @@
         <v>8</v>
       </c>
       <c r="C942" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D942" t="n">
         <v>12</v>
@@ -24944,10 +24944,10 @@
         <v>15</v>
       </c>
       <c r="C943" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D943" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E943" t="n">
         <v>11</v>
@@ -24999,7 +24999,7 @@
         <v>6</v>
       </c>
       <c r="D945" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E945" t="n">
         <v>5</v>
@@ -25126,7 +25126,7 @@
         <v>12</v>
       </c>
       <c r="C950" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D950" t="n">
         <v>12</v>
@@ -25135,7 +25135,7 @@
         <v>12</v>
       </c>
       <c r="F950" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G950" t="n">
         <v>11</v>
@@ -25155,13 +25155,13 @@
         <v>12</v>
       </c>
       <c r="D951" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E951" t="n">
         <v>12</v>
       </c>
       <c r="F951" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G951" t="n">
         <v>10</v>
@@ -25178,16 +25178,16 @@
         <v>6</v>
       </c>
       <c r="C952" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="D952" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E952" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F952" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G952" t="n">
         <v>9</v>
@@ -25233,7 +25233,7 @@
         <v>12</v>
       </c>
       <c r="D954" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E954" t="n">
         <v>11</v>
@@ -25259,13 +25259,13 @@
         <v>10</v>
       </c>
       <c r="D955" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E955" t="n">
         <v>11</v>
       </c>
       <c r="F955" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G955" t="n">
         <v>10</v>
@@ -25282,16 +25282,16 @@
         <v>8</v>
       </c>
       <c r="C956" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="D956" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E956" t="n">
         <v>9</v>
       </c>
       <c r="F956" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G956" t="n">
         <v>8</v>
@@ -25369,7 +25369,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F959" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G959" t="n">
         <v>9</v>
@@ -25386,7 +25386,7 @@
         <v>10</v>
       </c>
       <c r="C960" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D960" t="n">
         <v>12</v>
@@ -25421,7 +25421,7 @@
         <v>11</v>
       </c>
       <c r="F961" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G961" t="n">
         <v>10</v>
